--- a/data/Standing.xlsx
+++ b/data/Standing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Documents\Top Oss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Documents\Top Oss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{960F5424-194D-408F-A930-F051DD49E1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAC59B-87A1-4B6F-9E62-FD2F291EC069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3046D1F-5EFF-4E08-91C7-DF4398EAE8C4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>1.</t>
   </si>
@@ -188,121 +188,124 @@
     <t>Top Oss</t>
   </si>
   <si>
-    <t>60:34</t>
-  </si>
-  <si>
-    <t>47:34</t>
-  </si>
-  <si>
-    <t>48:29</t>
-  </si>
-  <si>
-    <t>47:31</t>
-  </si>
-  <si>
-    <t>40:27</t>
-  </si>
-  <si>
-    <t>54:39</t>
-  </si>
-  <si>
-    <t>40:29</t>
-  </si>
-  <si>
-    <t>44:37</t>
-  </si>
-  <si>
-    <t>38:39</t>
-  </si>
-  <si>
-    <t>44:35</t>
-  </si>
-  <si>
-    <t>37:36</t>
-  </si>
-  <si>
-    <t>40:45</t>
-  </si>
-  <si>
-    <t>42:42</t>
-  </si>
-  <si>
-    <t>44:50</t>
-  </si>
-  <si>
-    <t>32:34</t>
-  </si>
-  <si>
-    <t>19:45</t>
-  </si>
-  <si>
-    <t>26:44</t>
-  </si>
-  <si>
-    <t>38:56</t>
-  </si>
-  <si>
-    <t>22:52</t>
-  </si>
-  <si>
-    <t>36:60</t>
-  </si>
-  <si>
-    <t>W W V V W</t>
-  </si>
-  <si>
-    <t>W W W G W</t>
-  </si>
-  <si>
-    <t>W G V V W</t>
-  </si>
-  <si>
     <t>W W W W W</t>
   </si>
   <si>
-    <t>G G W W V</t>
-  </si>
-  <si>
-    <t>W V W V G</t>
-  </si>
-  <si>
-    <t>G V V W W</t>
-  </si>
-  <si>
-    <t>V W G V G</t>
-  </si>
-  <si>
-    <t>V W W V W</t>
-  </si>
-  <si>
-    <t>G V G V W</t>
-  </si>
-  <si>
-    <t>V V W V W</t>
-  </si>
-  <si>
-    <t>V W G W V</t>
-  </si>
-  <si>
-    <t>V G W V G</t>
-  </si>
-  <si>
-    <t>G V W V W</t>
-  </si>
-  <si>
-    <t>V G V G V</t>
-  </si>
-  <si>
-    <t>V G V W W</t>
-  </si>
-  <si>
     <t>V V V V V</t>
   </si>
   <si>
-    <t>W V V V G</t>
-  </si>
-  <si>
-    <t>V W W W V</t>
+    <t>63:35</t>
+  </si>
+  <si>
+    <t>50:34</t>
+  </si>
+  <si>
+    <t>49:32</t>
+  </si>
+  <si>
+    <t>49:30</t>
+  </si>
+  <si>
+    <t>45:27</t>
+  </si>
+  <si>
+    <t>56:40</t>
+  </si>
+  <si>
+    <t>41:31</t>
+  </si>
+  <si>
+    <t>46:36</t>
+  </si>
+  <si>
+    <t>44:40</t>
+  </si>
+  <si>
+    <t>38:37</t>
+  </si>
+  <si>
+    <t>39:42</t>
+  </si>
+  <si>
+    <t>42:45</t>
+  </si>
+  <si>
+    <t>42:43</t>
+  </si>
+  <si>
+    <t>34:37</t>
+  </si>
+  <si>
+    <t>45:52</t>
+  </si>
+  <si>
+    <t>20:46</t>
+  </si>
+  <si>
+    <t>26:49</t>
+  </si>
+  <si>
+    <t>39:58</t>
+  </si>
+  <si>
+    <t>24:55</t>
+  </si>
+  <si>
+    <t>37:60</t>
+  </si>
+  <si>
+    <t>W W W V V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W W W W G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">G W G V V </t>
+  </si>
+  <si>
+    <t>W G G W W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W W V W V </t>
+  </si>
+  <si>
+    <t>V G V V W</t>
+  </si>
+  <si>
+    <t>W V W W V</t>
+  </si>
+  <si>
+    <t>V W W V V</t>
+  </si>
+  <si>
+    <t>G G V G V</t>
+  </si>
+  <si>
+    <t>V V W G V</t>
+  </si>
+  <si>
+    <t>W V V W V</t>
+  </si>
+  <si>
+    <t>V V W G W</t>
+  </si>
+  <si>
+    <t>V W G V W</t>
+  </si>
+  <si>
+    <t>V V G W V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G V G V G </t>
+  </si>
+  <si>
+    <t>V V G V W</t>
+  </si>
+  <si>
+    <t>G V W V V</t>
+  </si>
+  <si>
+    <t>W V W W W</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -740,16 +743,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -760,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -772,16 +775,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -789,13 +792,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -804,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
         <v>52</v>
       </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>49</v>
-      </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,31 +824,31 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -856,10 +859,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -868,16 +871,16 @@
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -888,10 +891,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -900,16 +903,16 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,7 +923,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -929,19 +932,19 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,31 +952,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9">
         <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
       </c>
       <c r="I9">
         <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,31 +984,31 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,31 +1016,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,31 +1048,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="I12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1080,10 +1083,10 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1092,16 +1095,16 @@
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I13">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,7 +1115,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1121,19 +1124,19 @@
         <v>9</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14">
         <v>33</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1141,31 +1144,31 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H15">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="I15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1173,31 +1176,31 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="I16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1208,28 +1211,28 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H17">
         <v>-26</v>
       </c>
       <c r="I17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1240,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -1249,19 +1252,19 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="I18">
         <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1272,7 +1275,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1281,19 +1284,19 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H19">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="I19">
         <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1304,28 +1307,28 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="I20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1336,10 +1339,10 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -1348,16 +1351,16 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21">
-        <v>-24</v>
+        <v>-23</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/Standing.xlsx
+++ b/data/Standing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melvi\Documents\Top Oss\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEAC59B-87A1-4B6F-9E62-FD2F291EC069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76339691-F360-471E-A442-8AA1D6014DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3046D1F-5EFF-4E08-91C7-DF4398EAE8C4}"/>
   </bookViews>
@@ -681,13 +681,14 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -749,6 +750,7 @@
         <v>28</v>
       </c>
       <c r="I2">
+        <f>D2*3+E2</f>
         <v>58</v>
       </c>
       <c r="J2" t="s">
@@ -781,6 +783,7 @@
         <v>16</v>
       </c>
       <c r="I3">
+        <f>D3*3+E3</f>
         <v>53</v>
       </c>
       <c r="J3" t="s">
@@ -813,6 +816,7 @@
         <v>17</v>
       </c>
       <c r="I4">
+        <f t="shared" ref="I4:I21" si="0">D4*3+E4</f>
         <v>52</v>
       </c>
       <c r="J4" t="s">
@@ -845,6 +849,7 @@
         <v>19</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J5" t="s">
@@ -877,6 +882,7 @@
         <v>18</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="J6" t="s">
@@ -909,6 +915,7 @@
         <v>16</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="J7" t="s">
@@ -941,6 +948,7 @@
         <v>10</v>
       </c>
       <c r="I8">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="J8" t="s">
@@ -973,6 +981,7 @@
         <v>10</v>
       </c>
       <c r="I9">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="J9" t="s">
@@ -1005,6 +1014,7 @@
         <v>4</v>
       </c>
       <c r="I10">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="J10" t="s">
@@ -1037,6 +1047,7 @@
         <v>1</v>
       </c>
       <c r="I11">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="J11" t="s">
@@ -1069,6 +1080,7 @@
         <v>-3</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="J12" t="s">
@@ -1101,6 +1113,7 @@
         <v>-3</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="J13" t="s">
@@ -1133,6 +1146,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="J14" t="s">
@@ -1165,6 +1179,7 @@
         <v>-3</v>
       </c>
       <c r="I15">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="J15" t="s">
@@ -1197,6 +1212,7 @@
         <v>-7</v>
       </c>
       <c r="I16">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="J16" t="s">
@@ -1229,6 +1245,7 @@
         <v>-26</v>
       </c>
       <c r="I17">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J17" t="s">
@@ -1261,6 +1278,7 @@
         <v>-23</v>
       </c>
       <c r="I18">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="J18" t="s">
@@ -1293,6 +1311,7 @@
         <v>-19</v>
       </c>
       <c r="I19">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J19" t="s">
@@ -1325,6 +1344,7 @@
         <v>-31</v>
       </c>
       <c r="I20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="J20" t="s">
@@ -1357,6 +1377,7 @@
         <v>-23</v>
       </c>
       <c r="I21">
+        <f>D21*3+E21 -27</f>
         <v>4</v>
       </c>
       <c r="J21" t="s">
